--- a/Sample/샘플-학사정보데이터(2022-05-19).xlsx
+++ b/Sample/샘플-학사정보데이터(2022-05-19).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12270" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보샘플" sheetId="2" r:id="rId1"/>
@@ -2491,7 +2491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -24364,7 +24364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
